--- a/docs/BOM_PCB.xlsx
+++ b/docs/BOM_PCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jikai\Documents\GitHub\Electronic-System-Design-Practice\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E8720B3-4110-4EF5-8523-4DBC7E6C1234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A06DEA9-50B4-4FE8-B261-C33FC0C94AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16900" windowHeight="7220"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PCB_2022-08-28" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -350,12 +350,16 @@
   </si>
   <si>
     <t>C143430</t>
+  </si>
+  <si>
+    <t>TS665CJ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1300,14 +1304,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="44.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>0.12720000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>0.1845</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1435,7 +1445,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>0.13550000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1531,7 +1541,7 @@
         <v>0.1658</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>0.39939999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>1.4596</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1691,7 +1701,7 @@
         <v>0.96279999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1723,7 +1733,7 @@
         <v>1.4196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1755,7 +1765,7 @@
         <v>1.8491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>0.2225</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1819,7 +1829,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1915,7 +1925,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1947,7 +1957,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1979,7 +1989,7 @@
         <v>1.8418000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>1.8552</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
